--- a/data/trans_dic/P21D_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_3_R-Edad-trans_dic.xlsx
@@ -683,10 +683,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.0139317069813441</v>
+        <v>0.01276987028988321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.007096012371806512</v>
+        <v>0.006893939867981865</v>
       </c>
     </row>
     <row r="13">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.002354672592619288</v>
+        <v>0.002354672592619289</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0</v>
@@ -733,11 +733,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01178607373573645</v>
+        <v>0.01201496554066359</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.005676053441083692</v>
+        <v>0.005696306356680286</v>
       </c>
     </row>
     <row r="16">
@@ -785,10 +785,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01110010108854132</v>
+        <v>0.01542209625533041</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006582680303331961</v>
+        <v>0.008216261518388411</v>
       </c>
     </row>
     <row r="19">
@@ -879,10 +879,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01547918298762416</v>
+        <v>0.01515677891666724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007855239533752726</v>
+        <v>0.008909734515233138</v>
       </c>
     </row>
     <row r="25">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
     </row>
     <row r="27">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="28">
@@ -1218,10 +1218,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4133</v>
+        <v>3788</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3897</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="16">
@@ -1285,11 +1285,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3737</v>
+        <v>3810</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>3766</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="20">
@@ -1354,10 +1354,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>2821</v>
+        <v>3920</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3368</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="24">
@@ -1482,10 +1482,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>2891</v>
+        <v>2831</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2485</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="32">
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>743</v>
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="36">
